--- a/src/test/java/techproed/resources/Capitals.xlsx
+++ b/src/test/java/techproed/resources/Capitals.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\OneDrive\Masaüstü\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7900"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>COUNTRY</t>
   </si>
@@ -85,13 +80,17 @@
   </si>
   <si>
     <t>Oslo</t>
+  </si>
+  <si>
+    <t>NUFUS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -130,10 +129,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,59 +348,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" t="n" s="0">
+        <v>712816.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" t="n" s="0">
+        <v>2161000.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" t="n" s="0">
+        <v>8982000.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" t="n" s="0">
+        <v>5663000.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -408,7 +423,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -416,7 +431,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -424,7 +439,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -432,7 +447,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -440,13 +455,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
